--- a/Test circuits/Pasa bajas/pasa_bajas.xlsx
+++ b/Test circuits/Pasa bajas/pasa_bajas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cinvestav365-my.sharepoint.com/personal/saul_gonzalez_cinvestav_mx/Documents/Documentos 1/MATLAB/Proyecto Simulador de circuitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adare\OneDrive\Documentos\Maestria Cinvestav\Microondas\proyecto\Circuitos de prueba\Pasa bajas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40670396-23C0-4F64-A717-7787724AFCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353AB485-AAF9-4F47-8284-A5FB1476D4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{2B5AA463-D4CF-48A2-8F63-6109AFF9BEEE}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11055" xr2:uid="{2B5AA463-D4CF-48A2-8F63-6109AFF9BEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Operation Freq</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,12 +459,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F2" sqref="F2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +480,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -491,8 +503,14 @@
       <c r="E2" s="1">
         <v>14</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -508,8 +526,14 @@
       <c r="E3" s="1">
         <v>25</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -525,9 +549,15 @@
       <c r="E4" s="3">
         <v>1.3000000000000001E-9</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -542,6 +572,12 @@
       </c>
       <c r="E5" s="3">
         <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
